--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc1\git\RhythmCatchBall\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5A49B7-E90D-4F85-982C-E2F8859900F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="6" r:id="rId1"/>
@@ -18,8 +12,11 @@
     <sheet name="박성민" sheetId="3" r:id="rId3"/>
     <sheet name="임석렬" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>할일</t>
   </si>
@@ -53,28 +50,107 @@
   <si>
     <t>문제점</t>
   </si>
+  <si>
+    <t>Player Class 코드오류 확인, 메소드 작성</t>
+  </si>
+  <si>
+    <t>GameObjTest 작성</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Player </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인 및 ReadyThrow 수정, Throw 작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Junit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용한 Test case 작성</t>
+    </r>
+  </si>
+  <si>
+    <t>작성함</t>
+  </si>
+  <si>
+    <r>
+      <t>GameObj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메소드에서 수정 후 나머지 작성필요</t>
+    </r>
+  </si>
+  <si>
+    <t>사소한 문법오류 수정 및 작성완료</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Throw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메소드에서 shoot객체 값 초기화 부분 ball클래스 작성이후 수정 필요</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,17 +173,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -119,11 +198,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -143,11 +222,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -167,11 +246,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -191,11 +270,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -220,60 +299,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09216DD3-B91D-40D5-A2A1-B44DB5319523}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{CB7A7201-8BFC-D74F-B5EC-48471E641635}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C86CB454-D5D0-4FF7-A092-CFA35478410E}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{36B7BCA7-8860-498C-A9FE-61653DCB19EB}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7DF412A6-9194-4F2B-B4F3-952C8B60CE7D}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4D29BBCB-CEB5-41C8-B809-20D3CE2D7475}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A930BB4A-F18C-452D-B095-903EB19F6E2C}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0E851B9F-9ABB-4F09-B166-BF3D0E55EC5B}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{73FFD93E-7A48-4148-99CF-4E85AA4C1F36}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{CB7A7201-8BFC-D74F-B5EC-48471E641635}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE1C16A6-EBA2-4080-B82F-866429734083}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{92AE2435-E5BE-4821-8B78-D0378AE6E75C}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{4DDE0321-5E32-440C-8CD9-7F4F600A9BE5}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F708C128-DF46-4417-B55E-506D5659D351}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{1B7C848D-620B-4E54-A828-6BCAFDF85F94}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{2D4BED50-513C-4343-B489-F7E0884F1E63}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC292F7A-8169-F544-87D7-5E751E302B2D}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{CB7A7201-8BFC-D74F-B5EC-48471E641635}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B1EA132-9987-0F4E-8B99-EFA12DA08DC4}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{15B26D7A-C19A-D843-980A-002FDC97EDAC}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{45B34DAB-B154-A248-9621-229186118E7E}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{BAB3B138-7773-EB4C-A303-2882DBAEDF4B}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{C27CCA5C-5577-AF45-BE47-6EB01E5D7DBE}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{CEE9A07C-65DC-2D4E-A564-48CF60809DDF}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A834ADBB-1A19-264E-8768-BD31A0F05DCF}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{A931BC6D-B1E1-2649-8D23-2C7B73EDCFEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{57D18F50-627E-E24B-B7E9-20003FA96EC0}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{FF8A36FF-2633-2E46-AE12-285D37CA3C19}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{BA5C562F-0A54-764D-AFF2-40A49350A097}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{B2046308-6837-614B-AB16-DBF7481F7A94}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{FA2DD1A4-BEB6-6D44-97B2-BF29DC61500A}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{C978756B-5187-1148-AC57-6B5399BA191F}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -322,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -374,7 +453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -568,23 +647,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE33AD3-6B1C-4D32-B705-5A86CA180EBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -616,7 +695,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -624,7 +703,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -632,7 +711,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -640,7 +719,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -648,7 +727,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -656,7 +735,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -664,7 +743,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -672,7 +751,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -680,7 +759,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -688,7 +767,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -696,7 +775,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -704,7 +783,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -712,7 +791,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -726,20 +805,25 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73283B24-7501-4AA6-A39E-5B93A2905EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -771,7 +855,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -779,7 +863,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -787,7 +871,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -795,7 +879,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -803,7 +887,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -811,7 +895,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -819,7 +903,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -827,7 +911,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -835,7 +919,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -843,7 +927,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -851,7 +935,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -859,7 +943,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -867,7 +951,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -881,20 +965,25 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -926,7 +1015,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -934,7 +1023,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -942,7 +1031,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -950,7 +1039,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -958,7 +1047,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -966,7 +1055,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -974,7 +1063,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -982,7 +1071,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -990,7 +1079,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -998,7 +1087,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1006,7 +1095,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1014,7 +1103,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1022,7 +1111,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1036,20 +1125,25 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,27 +1163,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:6" ht="120">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2">
         <v>43594</v>
       </c>
       <c r="D2" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43594</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43594</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1097,7 +1211,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1105,7 +1219,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1113,7 +1227,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1121,7 +1235,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1129,7 +1243,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1137,7 +1251,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1145,7 +1259,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1153,7 +1267,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1161,7 +1275,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1169,7 +1283,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1177,7 +1291,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1191,5 +1305,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375C17F-165B-4882-8814-767C58D8CE04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="6" r:id="rId1"/>
@@ -14,24 +20,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>할일</t>
   </si>
@@ -122,25 +122,49 @@
       <t>메소드에서 shoot객체 값 초기화 부분 ball클래스 작성이후 수정 필요</t>
     </r>
   </si>
+  <si>
+    <t>FloatMessage 클래스 코드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 다이어그램을 기반으로 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ball 클래스 점수판정, update 코드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임 차이에 따라서 점수 반환하도록 함, 다수의 공이 왔을때 공이 멈춰있도록 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 코드를 git에 commit함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball 클래스 포물선 운동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -178,7 +202,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -186,7 +210,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -198,11 +222,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -222,11 +246,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -246,11 +270,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -270,11 +294,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -299,60 +323,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,23 +671,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -695,7 +719,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -703,7 +727,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -711,7 +735,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -719,7 +743,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -727,7 +751,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -735,7 +759,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -743,7 +767,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -751,7 +775,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -759,7 +783,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -767,7 +791,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -775,7 +799,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -783,7 +807,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -791,7 +815,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -814,16 +838,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -855,7 +879,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -863,7 +887,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -871,7 +895,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -879,7 +903,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -887,7 +911,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -895,7 +919,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -903,7 +927,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -911,7 +935,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -919,7 +943,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -927,7 +951,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -935,7 +959,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -943,7 +967,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -951,7 +975,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -974,16 +998,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,35 +1027,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="2">
         <v>43594</v>
       </c>
       <c r="D2" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>43594</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43594</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43595</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1039,7 +1085,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1047,7 +1093,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1055,7 +1101,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1063,7 +1109,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1071,7 +1117,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1079,23 +1125,23 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1103,7 +1149,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1111,7 +1157,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1134,16 +1180,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1211,7 +1257,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1219,7 +1265,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1227,7 +1273,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1235,7 +1281,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1243,7 +1289,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1251,7 +1297,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1259,7 +1305,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1267,7 +1313,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1275,7 +1321,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1283,7 +1329,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1291,7 +1337,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc1\git\RhythmCatchBall\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375C17F-165B-4882-8814-767C58D8CE04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A13162-D69B-4C91-8C6D-70AB151F57A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12150" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="김민종" sheetId="6" r:id="rId1"/>
-    <sheet name="김범준" sheetId="5" r:id="rId2"/>
+    <sheet name="김민종" sheetId="5" r:id="rId1"/>
+    <sheet name="김범준" sheetId="6" r:id="rId2"/>
     <sheet name="박성민" sheetId="3" r:id="rId3"/>
     <sheet name="임석렬" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>할일</t>
   </si>
@@ -144,6 +144,62 @@
   </si>
   <si>
     <t xml:space="preserve">Ball 클래스 포물선 운동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 다이어그램 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매주 개발상황을 파악하기 위해 클래스다이어그램을 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 주석 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 파일에서도 요구사항 확인 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 판정기능 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 판정을 int형에서 enum으로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player, Ball 클래스에서 정상적으로 작동함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 클래스의 코드를 수정해야 했음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 불러오는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱싱 방법을 따로 찾아내야 했음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 매니지먼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 진행에서 요구사항을 명확히 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 사용할 이미지 리소스를 불러오는 GameManager의 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 불러와지는지 테스트는 없었으나 13일 정상 작동을 확인함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,6 +379,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
@@ -332,21 +403,6 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -425,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -477,7 +533,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -678,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -707,46 +763,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C2" s="2">
         <v>43594</v>
       </c>
-      <c r="D2" s="2">
-        <v>43597</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43595</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43595</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43595</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43593</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -826,8 +920,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -838,11 +933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc1\git\RhythmCatchBall\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A13162-D69B-4C91-8C6D-70AB151F57A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C042FD5-2D5A-4FD5-9060-333A48596647}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12150" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>할일</t>
   </si>
@@ -200,6 +200,46 @@
   </si>
   <si>
     <t>진짜 불러와지는지 테스트는 없었으나 13일 정상 작동을 확인함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 코드의 포물선 알고리즘을 이용하여 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공 놓쳤을 때 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum Checkout으로 점수 판정을 변경하면서 관련된 코드 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 코드 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player에서 박자따라 던지는 함수 필요해서 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박자 함수를 만들어서 던지게끔 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기 편하게 enum Key를 만들어 키값 배열의 인덱스 구현, UserConfig 클래스로 키 설정값 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드 키 값을 저장하고 초기값을 설정해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 ui구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글, 멀티, 온라인, 설정, 게임종료를 포함한 게임 메인화면 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,12 +422,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -397,12 +437,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -737,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1096,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M15" sqref="M14:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1158,56 +1198,106 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" s="2">
         <v>43595</v>
       </c>
       <c r="D4" s="2">
         <v>43595</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43595</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43595</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43598</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43598</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43598</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43598</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43598</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1215,7 +1305,9 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>43598</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1263,8 +1355,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1279,7 +1372,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C042FD5-2D5A-4FD5-9060-333A48596647}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -20,18 +14,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>할일</t>
   </si>
@@ -242,25 +236,78 @@
     <t>싱글, 멀티, 온라인, 설정, 게임종료를 포함한 게임 메인화면 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> KeyBoardController 클래스 작성</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KeyBoard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력을 처리하는 클래스 작성</t>
+    </r>
+  </si>
+  <si>
+    <t>key가 연결되는 player가 gameobj에 의해 호출될시 callbyreference여부 확인 필요</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Controller </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인터페이스 작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>들이 상속받는 인터페이스 작성</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -272,16 +319,35 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -289,24 +355,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -318,11 +408,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -342,11 +432,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -366,11 +456,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -390,11 +480,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -419,60 +509,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -521,7 +611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -573,7 +663,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -767,23 +857,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="105">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -817,7 +907,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="60">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -831,7 +921,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -851,7 +941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="120">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -871,7 +961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -885,7 +975,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -893,7 +983,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -901,7 +991,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -909,7 +999,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -917,7 +1007,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -925,7 +1015,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -933,7 +1023,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -941,7 +1031,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -949,7 +1039,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -960,9 +1050,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -973,16 +1062,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -1014,7 +1103,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1022,7 +1111,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1030,7 +1119,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1038,7 +1127,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1046,7 +1135,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1054,7 +1143,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1062,7 +1151,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1070,7 +1159,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1078,7 +1167,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1086,7 +1175,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1094,7 +1183,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1102,7 +1191,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1110,7 +1199,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1133,16 +1222,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M15" sqref="M14:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="75">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,7 +1269,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="165">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1287,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="90">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1305,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1234,7 +1323,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1252,7 +1341,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="90">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1270,7 +1359,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="180">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1288,7 +1377,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="120">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1302,7 +1391,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
@@ -1312,7 +1401,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1320,7 +1409,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1328,7 +1417,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1336,7 +1425,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1344,7 +1433,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1355,9 +1444,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1368,16 +1456,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="120">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1437,23 +1525,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="135">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43598</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43598</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43598</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43598</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1461,7 +1573,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1469,7 +1581,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1477,7 +1589,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1485,7 +1597,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1493,7 +1605,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1501,7 +1613,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1509,7 +1621,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1517,7 +1629,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1525,7 +1637,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="박성민" sheetId="3" r:id="rId3"/>
     <sheet name="임석렬" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>할일</t>
   </si>
@@ -289,25 +289,69 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>GameManger Draw() 코드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gameobj 별로 이미지를 출력하는 Draw 함수를 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버퍼이미지에 출력이 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameManger Draw() 코드 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 이미지를 array에 저장하는 형식에서 hashmap으로 자료 저장 구조변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashmap에 key값별로 이미지와 xoffset yoffset을 가지도록 저장.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지가 그려질 때의 조건과 초기값 설정이 예상과 다름.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw() 테스팅을 위한 함수 작성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장된 이미지들을 지정된 좌표에 순서대로 출력하는 코드를 작성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기값 설정이 예상과는 차이가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽과 버퍼이미지를 이용해서 해시맵에 저장된 이미지들을 출력할 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -328,8 +372,8 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="129"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -379,7 +423,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -391,109 +435,109 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -864,14 +908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -893,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="87.5">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -907,7 +951,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="60">
+    <row r="3" spans="1:6" ht="70">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -921,7 +965,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="70">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -941,7 +985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120">
+    <row r="5" spans="1:6" ht="105">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -961,7 +1005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75">
+    <row r="6" spans="1:6" ht="70">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1062,14 +1106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1091,33 +1135,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:6" ht="87.5">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C2" s="2">
-        <v>43594</v>
+        <v>43595</v>
       </c>
       <c r="D2" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>43596</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+    <row r="3" spans="1:6" ht="122.5">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43598</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43598</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="122.5">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43598</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43598</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
@@ -1222,14 +1296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M14:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1251,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75">
+    <row r="2" spans="1:6" ht="52.5">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1343,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="165">
+    <row r="3" spans="1:6" ht="122.5">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1287,7 +1361,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="70">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1305,7 +1379,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="52.5">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1341,7 +1415,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="90">
+    <row r="7" spans="1:6" ht="70">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1359,7 +1433,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="180">
+    <row r="8" spans="1:6" ht="140">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1377,7 +1451,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="120">
+    <row r="9" spans="1:6" ht="105">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1456,14 +1530,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1485,7 +1559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="107.5">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="62.5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="120">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -1545,7 +1619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="62.5">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F759E1B2-5D72-4A91-994C-398250694078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -14,18 +20,18 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>할일</t>
   </si>
@@ -333,15 +339,23 @@
     <t>그래픽과 버퍼이미지를 이용해서 해시맵에 저장된 이미지들을 출력할 수 있음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>싱글 부분을 1p, 2p로 나눠서 5개의 버튼 만듬. 눌렀을 때 엑션까지 구현, 따로 프로젝트를 만들었기 때문에 충돌을 고려해 커밋하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중에 메인화면 이미지를 따로 입히고 버튼도 보기 좋게 바꿔야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,99 +459,99 @@
   <dxfs count="24">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,60 +567,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -901,23 +915,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87.5">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -951,7 +965,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="70">
+    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -965,7 +979,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="70">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -985,7 +999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105">
+    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1005,7 +1019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="70">
+    <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1019,7 +1033,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1027,7 +1041,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1035,7 +1049,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1043,7 +1057,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1051,7 +1065,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1059,7 +1073,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1067,7 +1081,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1075,7 +1089,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1083,7 +1097,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1106,16 +1120,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87.5">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1153,7 +1167,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="122.5">
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1173,7 +1187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="122.5">
+    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1193,7 +1207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1201,7 +1215,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1209,7 +1223,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1217,7 +1231,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1225,7 +1239,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1233,7 +1247,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1241,7 +1255,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1249,7 +1263,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1257,7 +1271,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1265,7 +1279,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1273,7 +1287,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1296,16 +1310,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M14:M15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.5">
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1343,7 +1357,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="122.5">
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1361,7 +1375,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="70">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1379,7 +1393,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="52.5">
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1411,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1415,7 +1429,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="70">
+    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1433,7 +1447,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="140">
+    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1451,7 +1465,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="105">
+    <row r="9" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1461,11 +1475,17 @@
       <c r="C9" s="2">
         <v>43598</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="2">
+        <v>43599</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
@@ -1475,7 +1495,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1483,7 +1503,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1491,7 +1511,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1499,7 +1519,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1507,7 +1527,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1518,8 +1538,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1530,16 +1551,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="107.5">
+    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1579,7 +1600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="62.5">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +1620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120">
+    <row r="4" spans="1:6" ht="114" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -1619,7 +1640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="62.5">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1639,7 +1660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1647,7 +1668,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1655,7 +1676,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1663,7 +1684,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1671,7 +1692,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1679,7 +1700,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1687,7 +1708,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1695,7 +1716,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1703,7 +1724,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1711,7 +1732,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F759E1B2-5D72-4A91-994C-398250694078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F7B052-DBF4-4B7D-A645-E6796E75A684}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>할일</t>
   </si>
@@ -345,6 +345,30 @@
   </si>
   <si>
     <t>나중에 메인화면 이미지를 따로 입히고 버튼도 보기 좋게 바꿔야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online UI 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방만들기, 방 들어가기 두가지 중 하나 클릭하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭하면 다음 화면으로 넘어가야 하는데 방법 알아내야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip, port입력하는 UI 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방만들기 입력 시 port를, 방들어가기 시 ip, port만 입력하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 플레이어 접속(서로 통신가능하다는 거 확인)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +693,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -721,7 +745,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1313,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1485,28 +1509,48 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C10" s="2">
-        <v>43598</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+        <v>43600</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43600</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43600</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:6" ht="71.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>43600</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F7B052-DBF4-4B7D-A645-E6796E75A684}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4798682-F620-46BD-9FF7-F74DEEF61256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>할일</t>
   </si>
@@ -371,6 +371,27 @@
     <t>온라인 플레이어 접속(서로 통신가능하다는 거 확인)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>onlineUI에서 버튼을 클릭하면 따로 창이 떠서 입력받으려 했는데 그냥 onlineUI로 합침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">textField로 ip랑 port를 적긴 하는데 이 값을 받아서 옮기는 과정은 아직 안 했음. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그리고 다른 곳에서 작업하고 복붙하니 에러가 뜨는데 이유를 모르겠다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,6 +433,22 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -456,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -475,6 +512,9 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1337,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="224.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1539,9 +1579,15 @@
       <c r="C11" s="2">
         <v>43600</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="2">
+        <v>43604</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4798682-F620-46BD-9FF7-F74DEEF61256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -20,18 +14,18 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>할일</t>
   </si>
@@ -383,7 +377,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -392,25 +386,106 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>GameObj, GameManager 수정, test실행환경 만들기</t>
+  </si>
+  <si>
+    <t>이때까지 작성된 코드로 floatmessage, gui등 작동하는지 확인</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">floatmessage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>까지 실행 확인</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OnlineUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환경 작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OnlineUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에서 실행할, Server, Client 클래스 작성 -&gt; 서버 클라이언트 연결 확인 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OnlineUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서 server는 완료, Client는 연결까지만 확인</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성 마저 다해야하고, OnlineController로 test해야함, 각종 예외처리 아직 미흡</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -431,14 +506,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -446,7 +521,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -498,7 +573,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -510,7 +585,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -518,7 +593,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -530,11 +605,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -554,11 +629,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -578,11 +653,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -602,11 +677,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -631,60 +706,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -733,7 +808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -785,7 +860,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -979,23 +1054,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="120">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +1104,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1043,7 +1118,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1063,7 +1138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="120">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1083,7 +1158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1097,7 +1172,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1105,7 +1180,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1113,7 +1188,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1121,7 +1196,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1129,7 +1204,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1137,7 +1212,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1145,7 +1220,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1153,7 +1228,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1161,7 +1236,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1184,16 +1259,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="105">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1231,7 +1306,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="135">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1251,7 +1326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="135">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1271,7 +1346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1279,7 +1354,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1287,7 +1362,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1295,7 +1370,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1303,7 +1378,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1311,7 +1386,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1319,7 +1394,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1327,7 +1402,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1335,7 +1410,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1343,7 +1418,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1351,7 +1426,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1374,16 +1449,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="75">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1421,7 +1496,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="180">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1439,7 +1514,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="105">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,7 +1532,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1475,7 +1550,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1493,7 +1568,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="90">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1511,7 +1586,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="195">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1529,7 +1604,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="255">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1549,7 +1624,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="120">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1569,7 +1644,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="224.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="285">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1589,7 +1664,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="71.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="90">
       <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
@@ -1601,7 +1676,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1609,7 +1684,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1617,7 +1692,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1628,9 +1703,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1641,16 +1715,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="120">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1710,7 +1784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="114" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="135">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -1730,7 +1804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1750,23 +1824,45 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:6" ht="105">
+      <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43600</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="150">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43605</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43606</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1774,7 +1870,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1782,7 +1878,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1790,7 +1886,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1798,7 +1894,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1806,7 +1902,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1814,7 +1910,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1822,7 +1918,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB44484-73E6-4398-928A-1C55694FB65E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -14,18 +20,18 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>할일</t>
   </si>
@@ -362,28 +368,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>온라인 플레이어 접속(서로 통신가능하다는 거 확인)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>onlineUI에서 버튼을 클릭하면 따로 창이 떠서 입력받으려 했는데 그냥 onlineUI로 합침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">textField로 ip랑 port를 적긴 하는데 이 값을 받아서 옮기는 과정은 아직 안 했음. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그리고 다른 곳에서 작업하고 복붙하니 에러가 뜨는데 이유를 모르겠다.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,25 +452,45 @@
       <t>작성 마저 다해야하고, OnlineController로 test해야함, 각종 예외처리 아직 미흡</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">textField로 ip랑 port를 적긴 하는데 이 값을 받아서 옮기는 과정은 아직 안 했음. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainUI와 onlineUI 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainUI에서 Online 버튼 누르면 OnlineUI 띄워야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContainerUI 만들어서 여기서 mainUI과 onlineUI를 호출함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI바꾸는 건 했는데 버튼 입력시 바꾸게 해야함.. 그리고 코드의 구림이 느껴져서 해결해야 할듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -506,22 +511,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -573,7 +570,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -585,7 +582,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -593,7 +590,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -605,11 +602,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -629,11 +626,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -653,11 +650,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -677,11 +674,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -706,60 +703,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1054,23 +1051,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1101,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1118,7 +1115,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120">
+    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75">
+    <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1169,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1180,7 +1177,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1188,7 +1185,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1196,7 +1193,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1204,7 +1201,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1212,7 +1209,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1220,7 +1217,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1228,7 +1225,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1236,7 +1233,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1259,16 +1256,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1306,7 +1303,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="135">
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1326,7 +1323,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1346,7 +1343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1354,7 +1351,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1362,7 +1359,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1370,7 +1367,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1378,7 +1375,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1386,7 +1383,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1394,7 +1391,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1402,7 +1399,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1410,7 +1407,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1418,7 +1415,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1426,7 +1423,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1449,16 +1446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75">
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1496,7 +1493,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="180">
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1514,7 +1511,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="105">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1532,7 +1529,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1550,7 +1547,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1568,7 +1565,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="90">
+    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1586,7 +1583,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="195">
+    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1604,7 +1601,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="255">
+    <row r="9" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1621,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="120">
+    <row r="10" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1644,7 +1641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="285">
+    <row r="11" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1658,25 +1655,33 @@
         <v>43604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="90">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C12" s="2">
-        <v>43600</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+        <v>43604</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43607</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1684,7 +1689,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1692,7 +1697,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1703,8 +1708,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1715,16 +1721,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="114" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1824,12 +1830,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2">
         <v>43600</v>
@@ -1838,16 +1844,16 @@
         <v>43600</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="117" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="150">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C7" s="2">
         <v>43605</v>
@@ -1856,13 +1862,13 @@
         <v>43606</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1870,7 +1876,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1878,7 +1884,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1886,7 +1892,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1894,7 +1900,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1902,7 +1908,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1910,7 +1916,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1918,7 +1924,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc1\git\RhythmCatchBall\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB44484-73E6-4398-928A-1C55694FB65E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B10EB5E-9E36-4DC9-A180-4D86CB13826C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>할일</t>
   </si>
@@ -470,6 +470,46 @@
   </si>
   <si>
     <t>UI바꾸는 건 했는데 버튼 입력시 바꾸게 해야함.. 그리고 코드의 구림이 느껴져서 해결해야 할듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameplay패키지 내부 메서드 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합하는 단계에서 프로젝트 전체 흐름을 전달하기 어려웠기 때문에(능력부족) 직접 진행했음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적으로 키 입력을 받고 게임 진행과 점수 누적이 가능했음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 게임 진행과 시각적 결과물을 도출하기 위해 gameplay 내부의 클래스를 종합해서 인게임 플레이 매커니즘을 구현함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임플레이 종합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스별 실질적으로 동작하는 내부 메서드를 설명하는 능력이 부족했던건지 팀원에게 적절하게 전달이 안 되는 것으로 보여 직접 구현함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이론상으론 필요한 것들을 전부 구현했음. 실질적인 작동여부는 별개로 체크해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구체적으로 하면 할수록 세부적인 코드가 되어버리는 경향이 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스를 만들어가면서 어떻게 쓰일지 고민 끝에 최종적으로 사용될 메서드에 대해서 구현정도가 미흡했기 때문에 그에 따른 마무리 과정이 필요했음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임플레이에 관련한 코드 주석은 90%정도 달았음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +845,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -857,7 +897,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1061,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1111,8 +1151,12 @@
       <c r="C3" s="2">
         <v>43595</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="2">
+        <v>43600</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
@@ -1155,7 +1199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1167,23 +1211,49 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="224.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43600</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43602</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1244,8 +1314,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1449,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1724,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc1\git\RhythmCatchBall\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B10EB5E-9E36-4DC9-A180-4D86CB13826C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -20,18 +14,18 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>할일</t>
   </si>
@@ -512,25 +506,82 @@
     <t>게임플레이에 관련한 코드 주석은 90%정도 달았음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>server, client작성</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">online </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플레이를 위한 server, client 작성</t>
+    </r>
+  </si>
+  <si>
+    <t>둘다 연결까지는 작성, 확인되었음</t>
+  </si>
+  <si>
+    <r>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 주고받은 뒤 게임에서의 처리, onlinecontroller 작성 필요</t>
+    </r>
+  </si>
+  <si>
+    <t>server, client connection으로 통합해서 작성</t>
+  </si>
+  <si>
+    <t>연결할 시 server의 입장/client의 입장이 처음만 다르고 나머지는 같아서 connection으로 통합해서 작성</t>
+  </si>
+  <si>
+    <r>
+      <t>onlineController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서 send, receive제대로 작동하는지 확인해야함</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -551,14 +602,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -610,7 +661,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -622,7 +673,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -630,7 +681,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -642,11 +693,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -666,11 +717,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -690,11 +741,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -714,11 +765,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -743,60 +794,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -845,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -897,7 +948,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1091,23 +1142,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="105">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1192,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="90">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1210,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1179,7 +1230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="120">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1199,7 +1250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="120">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1215,7 +1266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="224.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="240">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1235,7 +1286,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="225">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1255,7 +1306,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1263,7 +1314,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1271,7 +1322,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1279,7 +1330,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1287,7 +1338,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1295,7 +1346,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1303,7 +1354,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1314,9 +1365,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1327,16 +1377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="105">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1374,7 +1424,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="135">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1394,7 +1444,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="135">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1414,7 +1464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1422,7 +1472,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1430,7 +1480,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1438,7 +1488,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1446,7 +1496,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1454,7 +1504,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1462,7 +1512,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1470,7 +1520,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1478,7 +1528,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1486,7 +1536,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1494,7 +1544,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1517,16 +1567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="75">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1564,7 +1614,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="165">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1582,7 +1632,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="90">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1600,7 +1650,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1618,7 +1668,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1686,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="90">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1704,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="180">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1672,7 +1722,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="240">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1692,7 +1742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="105">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1712,7 +1762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="150">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1732,7 +1782,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="180">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1752,7 +1802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1760,7 +1810,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1768,7 +1818,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1779,9 +1829,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1792,16 +1841,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +1870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="120">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +1890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1861,7 +1910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="114" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="135">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -1881,7 +1930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1901,7 +1950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -1919,7 +1968,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="117" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="150">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -1939,23 +1988,47 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="120">
+      <c r="A8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43607</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="180">
+      <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42152</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43614</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1963,7 +2036,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1971,7 +2044,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1979,7 +2052,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1987,7 +2060,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1995,7 +2068,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>할일</t>
   </si>
@@ -561,6 +561,102 @@
         <charset val="129"/>
       </rPr>
       <t>에서 send, receive제대로 작동하는지 확인해야함</t>
+    </r>
+  </si>
+  <si>
+    <t>OnlineController 작성</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">connection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘겨받는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요함</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>connection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">과 연동하여 작동하는 부분 작성 </t>
     </r>
   </si>
 </sst>
@@ -577,6 +673,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1142,7 +1239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1845,7 +1942,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2028,13 +2125,25 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+    <row r="10" spans="1:6" ht="75">
+      <c r="A10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42153</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42153</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9824F7DE-35F2-40D1-ACC8-AEEBA93FC8C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -14,18 +20,18 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>할일</t>
   </si>
@@ -584,7 +590,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -605,7 +611,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -626,7 +632,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -659,26 +665,42 @@
       <t xml:space="preserve">과 연동하여 작동하는 부분 작성 </t>
     </r>
   </si>
+  <si>
+    <t>junit fail제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러떠서 없앰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code smell 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch에 default없어서 경고뜬거 없앰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -699,14 +721,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -758,7 +780,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -770,7 +792,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -778,7 +800,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -790,11 +812,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -814,11 +836,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -838,11 +860,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -862,11 +884,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -891,60 +913,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,23 +1261,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,7 +1311,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="90">
+    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1307,7 +1329,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +1349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120">
+    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1347,7 +1369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120">
+    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="240">
+    <row r="7" spans="1:6" ht="224.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1383,7 +1405,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="225">
+    <row r="8" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1403,7 +1425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1411,7 +1433,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1419,7 +1441,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1427,7 +1449,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1435,7 +1457,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1443,7 +1465,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1451,7 +1473,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1474,16 +1496,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1521,7 +1543,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="135">
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1541,7 +1563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1561,7 +1583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1569,7 +1591,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1577,7 +1599,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1585,7 +1607,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1593,7 +1615,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1601,7 +1623,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1609,7 +1631,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1617,7 +1639,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1625,7 +1647,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1633,7 +1655,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1641,7 +1663,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1664,16 +1686,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75">
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1733,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="165">
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +1751,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1769,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1765,7 +1787,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1783,7 +1805,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="90">
+    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1823,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="180">
+    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1819,7 +1841,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="240">
+    <row r="9" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1839,7 +1861,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105">
+    <row r="10" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1859,7 +1881,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="150">
+    <row r="11" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1879,7 +1901,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="180">
+    <row r="12" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1899,23 +1921,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43615</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43615</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43620</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43620</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1926,8 +1968,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1938,16 +1981,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +2030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2007,7 +2050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="114" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2027,7 +2070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2047,7 +2090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -2065,7 +2108,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="150">
+    <row r="7" spans="1:6" ht="117" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2085,7 +2128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120">
+    <row r="8" spans="1:6" ht="74.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -2105,7 +2148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="180">
+    <row r="9" spans="1:6" ht="142.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -2125,7 +2168,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75">
+    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>98</v>
       </c>
@@ -2145,7 +2188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -2153,7 +2196,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2161,7 +2204,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2169,7 +2212,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -2177,7 +2220,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9824F7DE-35F2-40D1-ACC8-AEEBA93FC8C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -20,18 +14,18 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
   <si>
     <t>할일</t>
   </si>
@@ -590,7 +584,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -611,7 +605,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -632,7 +626,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -680,27 +674,69 @@
   <si>
     <t>switch에 default없어서 경고뜬거 없앰</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code refactoring</t>
+  </si>
+  <si>
+    <t>schedule table update</t>
+  </si>
+  <si>
+    <t>일정 현황 밑 계획 최신화</t>
+  </si>
+  <si>
+    <t>SonarQube 분석 및 code smell수정</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">blank method </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주석처리, GameSprite 파일 처리 미완된 부분 처리, UpdateGame 메소드이름 변경</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>jpeg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일로 만들어 git에 docments 폴더에 커밋</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -721,15 +757,33 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -772,15 +826,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -792,15 +852,21 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -812,11 +878,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -836,11 +902,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -860,11 +926,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -884,11 +950,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -913,60 +979,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1261,23 +1327,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="105">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1311,7 +1377,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="90">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1395,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1349,7 +1415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="120">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1369,7 +1435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="120">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1385,7 +1451,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="224.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="240">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1405,7 +1471,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="225">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1425,7 +1491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1433,7 +1499,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1441,7 +1507,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1449,7 +1515,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1457,7 +1523,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1465,7 +1531,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1473,7 +1539,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1496,16 +1562,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="105">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1543,7 +1609,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="135">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1563,7 +1629,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="135">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1583,7 +1649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1591,7 +1657,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1599,7 +1665,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1607,7 +1673,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1615,7 +1681,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1623,7 +1689,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1631,7 +1697,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1639,7 +1705,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1647,7 +1713,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1655,7 +1721,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1663,7 +1729,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1686,16 +1752,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="75">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1799,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="165">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1751,7 +1817,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="90">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1769,7 +1835,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1787,7 +1853,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1805,7 +1871,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="90">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1823,7 +1889,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="180">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1841,7 +1907,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="240">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1861,7 +1927,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="105">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1881,7 +1947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="150">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1901,7 +1967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="180">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1921,7 +1987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -1939,7 +2005,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="75">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
@@ -1957,270 +2023,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43594</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="114" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6">
-        <v>43598</v>
-      </c>
-      <c r="D4" s="6">
-        <v>43598</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43598</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43598</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43600</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43600</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="117" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43605</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43606</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="74.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43607</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43607</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="142.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="2">
-        <v>42152</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43614</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42153</v>
-      </c>
-      <c r="D10" s="2">
-        <v>42153</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -2240,4 +2043,287 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G12" activeCellId="1" sqref="H11 G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="120">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43594</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="135">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43598</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43598</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43598</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43598</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="105">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43600</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="150">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43605</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43606</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120">
+      <c r="A8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43607</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="180">
+      <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43613</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43614</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75">
+      <c r="A10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43614</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42153</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="180">
+      <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43620</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43620</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="90">
+      <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43620</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43620</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
   <si>
     <t>할일</t>
   </si>
@@ -564,121 +564,60 @@
     </r>
   </si>
   <si>
-    <t>OnlineController 작성</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">connection </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>객체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>넘겨받는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부분</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필요함</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>connection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">과 연동하여 작동하는 부분 작성 </t>
-    </r>
+    <t>TutorialUI 코드 작성</t>
+  </si>
+  <si>
+    <t>Tutorial에 사용되는 영상을 재생하기 위해서 자바환경에 동영상 환경 구축위해 메소드작성</t>
+  </si>
+  <si>
+    <t>VLCJ를 이용해 VLC플레이어를 통해 SWING환경에서 동영상 플레이 가능</t>
+  </si>
+  <si>
+    <t>vlc플레이어를 따로 설치해야하며 내장된 JMF는 구버전이어서 쓸 수 없다.</t>
+  </si>
+  <si>
+    <t>VLCJ라이브러리 추가</t>
+  </si>
+  <si>
+    <t>앞선 코드 작동을 위해 라이브러리 추가함.</t>
+  </si>
+  <si>
+    <t>라이브러리 추가됨.</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Junit 테스트 작성</t>
+  </si>
+  <si>
+    <t>객체 여러 개의 변수를 동시에 사용하는 메소스들에대한 Test코드를 미리 작성</t>
+  </si>
+  <si>
+    <t>리플렉션 기능을 사용해 private protected 변수들을 사용할 수 있음</t>
+  </si>
+  <si>
+    <t>swing환경에서의 Junit에 대해서 좀 더 알아보야야 함.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -699,14 +638,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -758,7 +697,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -770,7 +709,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -778,104 +717,104 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -909,6 +848,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="할일" dataDxfId="17"/>
     <tableColumn id="2" name="내용" dataDxfId="16"/>
     <tableColumn id="3" name="할당일" dataDxfId="15"/>
@@ -920,8 +874,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="할일" dataDxfId="11"/>
@@ -930,21 +884,6 @@
     <tableColumn id="4" name="완성일" dataDxfId="8"/>
     <tableColumn id="5" name="결과" dataDxfId="7"/>
     <tableColumn id="6" name="문제점" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,21 +1178,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1275,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="87.5">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,7 +1228,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="90">
+    <row r="3" spans="1:6" ht="87.5">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1307,7 +1246,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="70">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +1266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120">
+    <row r="5" spans="1:6" ht="105">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1347,7 +1286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1302,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="240">
+    <row r="7" spans="1:6" ht="227.5">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1383,7 +1322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="225">
+    <row r="8" spans="1:6" ht="192.5">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1474,14 +1413,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1503,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="87.5">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1521,7 +1460,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="135">
+    <row r="3" spans="1:6" ht="122.5">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1541,7 +1480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="122.5">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1561,31 +1500,67 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="5" spans="1:6" ht="140">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43603</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="70">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43603</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43603</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="122.5">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43606</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43607</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="80" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1664,14 +1639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1693,7 +1668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75">
+    <row r="2" spans="1:6" ht="52.5">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1686,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="165">
+    <row r="3" spans="1:6" ht="122.5">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +1704,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="70">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1722,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="52.5">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1783,7 +1758,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="90">
+    <row r="7" spans="1:6" ht="70">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1776,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="180">
+    <row r="8" spans="1:6" ht="140">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1819,7 +1794,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="240">
+    <row r="9" spans="1:6" ht="210">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1839,7 +1814,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105">
+    <row r="10" spans="1:6" ht="87.5">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1859,7 +1834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="150">
+    <row r="11" spans="1:6" ht="140">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1879,7 +1854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="180">
+    <row r="12" spans="1:6" ht="140">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1938,14 +1913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1967,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="107.5">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="62.5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2007,7 +1982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="120">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2027,7 +2002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="62.5">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2047,7 +2022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -2065,7 +2040,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="150">
+    <row r="7" spans="1:6" ht="122.5">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2085,7 +2060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120">
+    <row r="8" spans="1:6" ht="77.5">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -2105,7 +2080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="180">
+    <row r="9" spans="1:6" ht="150">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -2125,25 +2100,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75">
-      <c r="A10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42153</v>
-      </c>
-      <c r="D10" s="2">
-        <v>42153</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>99</v>
-      </c>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>할일</t>
   </si>
@@ -564,60 +564,121 @@
     </r>
   </si>
   <si>
-    <t>TutorialUI 코드 작성</t>
-  </si>
-  <si>
-    <t>Tutorial에 사용되는 영상을 재생하기 위해서 자바환경에 동영상 환경 구축위해 메소드작성</t>
-  </si>
-  <si>
-    <t>VLCJ를 이용해 VLC플레이어를 통해 SWING환경에서 동영상 플레이 가능</t>
-  </si>
-  <si>
-    <t>vlc플레이어를 따로 설치해야하며 내장된 JMF는 구버전이어서 쓸 수 없다.</t>
-  </si>
-  <si>
-    <t>VLCJ라이브러리 추가</t>
-  </si>
-  <si>
-    <t>앞선 코드 작동을 위해 라이브러리 추가함.</t>
-  </si>
-  <si>
-    <t>라이브러리 추가됨.</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Junit 테스트 작성</t>
-  </si>
-  <si>
-    <t>객체 여러 개의 변수를 동시에 사용하는 메소스들에대한 Test코드를 미리 작성</t>
-  </si>
-  <si>
-    <t>리플렉션 기능을 사용해 private protected 변수들을 사용할 수 있음</t>
-  </si>
-  <si>
-    <t>swing환경에서의 Junit에 대해서 좀 더 알아보야야 함.</t>
+    <t>OnlineController 작성</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">connection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘겨받는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요함</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>connection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">과 연동하여 작동하는 부분 작성 </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -638,14 +699,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -697,7 +758,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -709,7 +770,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -717,104 +778,104 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -848,21 +909,6 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
-  <tableColumns count="6">
     <tableColumn id="1" name="할일" dataDxfId="17"/>
     <tableColumn id="2" name="내용" dataDxfId="16"/>
     <tableColumn id="3" name="할당일" dataDxfId="15"/>
@@ -874,8 +920,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="할일" dataDxfId="11"/>
@@ -884,6 +930,21 @@
     <tableColumn id="4" name="완성일" dataDxfId="8"/>
     <tableColumn id="5" name="결과" dataDxfId="7"/>
     <tableColumn id="6" name="문제점" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1178,21 +1239,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1214,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87.5">
+    <row r="2" spans="1:6" ht="105">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1228,7 +1289,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="87.5">
+    <row r="3" spans="1:6" ht="90">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1246,7 +1307,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="70">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1266,7 +1327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105">
+    <row r="5" spans="1:6" ht="120">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="120">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1363,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="227.5">
+    <row r="7" spans="1:6" ht="240">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1322,7 +1383,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="192.5">
+    <row r="8" spans="1:6" ht="225">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1413,14 +1474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1442,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87.5">
+    <row r="2" spans="1:6" ht="105">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1460,7 +1521,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="122.5">
+    <row r="3" spans="1:6" ht="135">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1480,7 +1541,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="122.5">
+    <row r="4" spans="1:6" ht="135">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1500,67 +1561,31 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="140">
-      <c r="A5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43602</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43603</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="70">
-      <c r="A6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43603</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43603</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="122.5">
-      <c r="A7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43606</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43607</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="80" customHeight="1">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1639,14 +1664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1668,7 +1693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.5">
+    <row r="2" spans="1:6" ht="75">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1711,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="122.5">
+    <row r="3" spans="1:6" ht="165">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1729,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="70">
+    <row r="4" spans="1:6" ht="90">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1722,7 +1747,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="52.5">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1758,7 +1783,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="70">
+    <row r="7" spans="1:6" ht="90">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1776,7 +1801,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="140">
+    <row r="8" spans="1:6" ht="180">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1794,7 +1819,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="210">
+    <row r="9" spans="1:6" ht="240">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1814,7 +1839,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="87.5">
+    <row r="10" spans="1:6" ht="105">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1834,7 +1859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="140">
+    <row r="11" spans="1:6" ht="150">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1854,7 +1879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="140">
+    <row r="12" spans="1:6" ht="180">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1913,14 +1938,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1942,7 +1967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="107.5">
+    <row r="2" spans="1:6" ht="120">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1962,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="62.5">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +2007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120">
+    <row r="4" spans="1:6" ht="135">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2002,7 +2027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="62.5">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2022,7 +2047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -2040,7 +2065,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="122.5">
+    <row r="7" spans="1:6" ht="150">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2060,7 +2085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="77.5">
+    <row r="8" spans="1:6" ht="120">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -2080,7 +2105,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="150">
+    <row r="9" spans="1:6" ht="180">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -2100,13 +2125,25 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+    <row r="10" spans="1:6" ht="75">
+      <c r="A10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42153</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42153</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA53649-1A42-4F12-B2DC-C2204651462C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="13875" yWindow="2355" windowWidth="14040" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -12,20 +18,20 @@
     <sheet name="박성민" sheetId="3" r:id="rId3"/>
     <sheet name="임석렬" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>할일</t>
   </si>
@@ -248,6 +254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>입력을 처리하는 클래스 작성</t>
@@ -584,7 +591,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -605,7 +612,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -626,7 +633,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -659,26 +666,65 @@
       <t xml:space="preserve">과 연동하여 작동하는 부분 작성 </t>
     </r>
   </si>
+  <si>
+    <t>익명 클래스 람다로 바꾸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code smell 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junit fail제거</t>
+  </si>
+  <si>
+    <t>에러떠서 없앰</t>
+  </si>
+  <si>
+    <t>작성한 코드를 git에 commit함</t>
+  </si>
+  <si>
+    <t>code smell 제거</t>
+  </si>
+  <si>
+    <t>switch에 default없어서 경고뜬거 없앰</t>
+  </si>
+  <si>
+    <t>람다 처음 써 봐서 잘 썼는지 확신이 안 든다. 만약 문제 생기면 다시 돌려놓을 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이너한 코드스멜 어느정도 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못하면 되돌리게 여러 번에 나눠 커밋했는데 너무 너저분해 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명명법 고치는 거랑 get, set쓰는거 아직 남았음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -694,19 +740,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="굴림"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -753,12 +800,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -770,15 +817,18 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -790,11 +840,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -814,11 +864,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -838,11 +888,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -862,11 +912,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -891,60 +941,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F18" totalsRowShown="0">
+  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,23 +1289,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,7 +1339,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="90">
+    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1307,7 +1357,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +1377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120">
+    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1347,7 +1397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120">
+    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1413,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="240">
+    <row r="7" spans="1:6" ht="224.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1383,7 +1433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="225">
+    <row r="8" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1403,7 +1453,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1411,7 +1461,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1419,7 +1469,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1427,7 +1477,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1435,7 +1485,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1443,7 +1493,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1451,7 +1501,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1474,16 +1524,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1521,7 +1571,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="135">
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1541,7 +1591,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1561,7 +1611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1569,7 +1619,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1577,7 +1627,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1585,7 +1635,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1593,7 +1643,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1601,7 +1651,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1609,7 +1659,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1617,7 +1667,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1625,7 +1675,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1633,7 +1683,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1641,7 +1691,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1664,16 +1714,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75">
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1761,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="165">
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +1779,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1797,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1765,7 +1815,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1783,7 +1833,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="90">
+    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1851,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="180">
+    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1819,7 +1869,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="240">
+    <row r="9" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1839,7 +1889,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105">
+    <row r="10" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1859,7 +1909,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="150">
+    <row r="11" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1879,7 +1929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="180">
+    <row r="12" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1899,29 +1949,97 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43615</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43615</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43620</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43620</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="15" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43622</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43622</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43623</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43623</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1938,16 +2056,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +2105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2007,7 +2125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="114" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2027,7 +2145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2047,7 +2165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -2065,7 +2183,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="150">
+    <row r="7" spans="1:6" ht="117" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2085,7 +2203,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120">
+    <row r="8" spans="1:6" ht="74.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -2105,7 +2223,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="180">
+    <row r="9" spans="1:6" ht="142.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -2125,7 +2243,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75">
+    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>98</v>
       </c>
@@ -2145,7 +2263,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -2153,7 +2271,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2161,7 +2279,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2169,7 +2287,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -2177,7 +2295,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA53649-1A42-4F12-B2DC-C2204651462C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="2355" windowWidth="14040" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13880" yWindow="2360" windowWidth="14040" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -19,8 +13,8 @@
     <sheet name="임석렬" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>할일</t>
   </si>
@@ -705,15 +699,79 @@
     <t>명명법 고치는 거랑 get, set쓰는거 아직 남았음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Tutorial UI를 구현하기 위한 자바 미디어 플레이어와 관련라이브러리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLCJ,VLC 플레이어와 라이브러리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이브러리 및 플레이어 설치로 자바 미디어 플레이 환경구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드 받지않으면 구현이 안된다는 점.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial UI를 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 코드작성 및 영상 촬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 재생이 가능하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오브젝트 볼 플레이어등 게임 컴포넌트들의 제이유닛 테스트 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나큐브 커버리지를 높이기 위해서 컴포넌트들의 메소드에 대한 최소 테스트코드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커버리지 3퍼센트 올라감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3퍼센트밖에 올라가지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오브젝트 볼 플레이어등 게임 컴포넌트들의 제이유닛 테스트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나큐브 업데이트가 안되는 관계로 약간의 수정을 통해 fail 잡아냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-28-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fail을 모두 캐치 하지만 소나큐브가 아직도 작동되지 않는 상태 이유모름 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나큐브 실행 불가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -833,99 +891,99 @@
   <dxfs count="24">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -941,60 +999,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F18" totalsRowShown="0">
-  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F18" totalsRowShown="0">
+  <autoFilter ref="A1:F18"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1289,23 +1347,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="87.5">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1397,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="87.5">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1415,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="70">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="105">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1413,7 +1471,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="224.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="227.5">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1433,7 +1491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="192.5">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1453,7 +1511,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1461,7 +1519,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1469,7 +1527,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1477,7 +1535,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1485,7 +1543,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1493,7 +1551,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1501,7 +1559,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1524,16 +1582,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="87.5">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1571,7 +1629,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="122.5">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1591,7 +1649,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="122.5">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1611,39 +1669,85 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+    <row r="5" spans="1:6" ht="105">
+      <c r="A5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43604</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43604</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="52.5">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43604</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43604</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="140">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43607</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105">
+      <c r="A8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43613</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1651,7 +1755,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1659,7 +1763,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1667,7 +1771,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1675,7 +1779,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1683,7 +1787,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1691,7 +1795,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1714,16 +1818,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="52.5">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1761,7 +1865,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="122.5">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1779,7 +1883,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="70">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1797,7 +1901,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="52.5">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1815,7 +1919,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1833,7 +1937,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="70">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1851,7 +1955,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="140">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1869,7 +1973,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="210">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1889,7 +1993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="87.5">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1909,7 +2013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="140">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -1929,7 +2033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="140">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1949,7 +2053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="52.5">
       <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
@@ -1967,7 +2071,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="70">
       <c r="A14" s="8" t="s">
         <v>106</v>
       </c>
@@ -1985,7 +2089,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="122.5">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -2005,7 +2109,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="105">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>
@@ -2025,7 +2129,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -2033,7 +2137,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -2056,16 +2160,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="107.5">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +2209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="62.5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2125,7 +2229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="114" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="120">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2145,7 +2249,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="62.5">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2165,7 +2269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -2183,7 +2287,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="117" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="122.5">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2203,7 +2307,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="74.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="77.5">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -2223,7 +2327,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="142.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="150">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -2243,7 +2347,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="67.5">
       <c r="A10" s="3" t="s">
         <v>98</v>
       </c>
@@ -2263,7 +2367,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -2271,7 +2375,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2279,7 +2383,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2287,7 +2391,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -2295,7 +2399,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="2360" windowWidth="14040" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="13880" yWindow="2360" windowWidth="14040" windowHeight="11020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -12,20 +12,20 @@
     <sheet name="박성민" sheetId="3" r:id="rId3"/>
     <sheet name="임석렬" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="132">
   <si>
     <t>할일</t>
   </si>
@@ -585,7 +585,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -606,7 +606,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -627,7 +627,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -763,26 +763,50 @@
     <t>소나큐브 실행 불가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SonarQube code refactoring</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gif tutorial </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <t>tutorial gif파일 생성 및 커밋</t>
+  </si>
+  <si>
+    <t>06/19/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -804,15 +828,33 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -855,15 +897,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -875,7 +925,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -885,105 +935,113 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1347,21 +1405,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1383,7 +1441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87.5">
+    <row r="2" spans="1:6" ht="105">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1455,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="87.5">
+    <row r="3" spans="1:6" ht="90">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1415,7 +1473,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="70">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105">
+    <row r="5" spans="1:6" ht="120">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="120">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1529,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="227.5">
+    <row r="7" spans="1:6" ht="240">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1491,7 +1549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="192.5">
+    <row r="8" spans="1:6" ht="225">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1582,14 +1640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1611,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87.5">
+    <row r="2" spans="1:6" ht="105">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1629,7 +1687,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="122.5">
+    <row r="3" spans="1:6" ht="135">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1649,7 +1707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="122.5">
+    <row r="4" spans="1:6" ht="135">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1669,7 +1727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105">
+    <row r="5" spans="1:6" ht="120">
       <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
@@ -1689,7 +1747,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="52.5">
+    <row r="6" spans="1:6" ht="60">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -1707,7 +1765,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="140">
+    <row r="7" spans="1:6" ht="150">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -1727,7 +1785,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="105">
+    <row r="8" spans="1:6" ht="150">
       <c r="A8" s="1" t="s">
         <v>123</v>
       </c>
@@ -1818,14 +1876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1847,7 +1905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.5">
+    <row r="2" spans="1:6" ht="75">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1865,7 +1923,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="122.5">
+    <row r="3" spans="1:6" ht="165">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +1941,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="70">
+    <row r="4" spans="1:6" ht="90">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1901,7 +1959,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="52.5">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1937,7 +1995,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="70">
+    <row r="7" spans="1:6" ht="90">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1955,7 +2013,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="140">
+    <row r="8" spans="1:6" ht="180">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1973,7 +2031,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="210">
+    <row r="9" spans="1:6" ht="240">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1993,7 +2051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="87.5">
+    <row r="10" spans="1:6" ht="105">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -2013,7 +2071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="140">
+    <row r="11" spans="1:6" ht="150">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2033,7 +2091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="140">
+    <row r="12" spans="1:6" ht="180">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -2053,7 +2111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="52.5">
+    <row r="13" spans="1:6" ht="60">
       <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
@@ -2071,7 +2129,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="70">
+    <row r="14" spans="1:6" ht="75">
       <c r="A14" s="8" t="s">
         <v>106</v>
       </c>
@@ -2089,7 +2147,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="122.5">
+    <row r="15" spans="1:6" ht="150">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -2109,7 +2167,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="105">
+    <row r="16" spans="1:6" ht="120">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>
@@ -2160,14 +2218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2189,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="107.5">
+    <row r="2" spans="1:6" ht="120">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2209,7 +2267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="62.5">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2229,7 +2287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120">
+    <row r="4" spans="1:6" ht="135">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2249,7 +2307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="62.5">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2269,7 +2327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -2287,7 +2345,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="122.5">
+    <row r="7" spans="1:6" ht="150">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2307,7 +2365,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="77.5">
+    <row r="8" spans="1:6" ht="120">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -2327,7 +2385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="150">
+    <row r="9" spans="1:6" ht="180">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -2335,7 +2393,7 @@
         <v>96</v>
       </c>
       <c r="C9" s="2">
-        <v>42152</v>
+        <v>43613</v>
       </c>
       <c r="D9" s="2">
         <v>43614</v>
@@ -2347,7 +2405,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="67.5">
+    <row r="10" spans="1:6" ht="75">
       <c r="A10" s="3" t="s">
         <v>98</v>
       </c>
@@ -2355,10 +2413,10 @@
         <v>100</v>
       </c>
       <c r="C10" s="2">
-        <v>42153</v>
+        <v>43614</v>
       </c>
       <c r="D10" s="2">
-        <v>42153</v>
+        <v>43614</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>10</v>
@@ -2367,27 +2425,47 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2">
+        <v>43620</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43620</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2">
+        <v>43622</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43622</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+    <row r="13" spans="1:6" ht="60">
+      <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
@@ -2410,6 +2488,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/documents/IndividualWorkSheet_Team1.xlsx
+++ b/documents/IndividualWorkSheet_Team1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RhythmCatchball\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BD5F05-2B11-4E0B-B86D-D3D3DC833453}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="2360" windowWidth="14040" windowHeight="11020" activeTab="3"/>
+    <workbookView xWindow="-75" yWindow="765" windowWidth="13860" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김민종" sheetId="5" r:id="rId1"/>
@@ -14,18 +20,18 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="134">
   <si>
     <t>할일</t>
   </si>
@@ -585,7 +591,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -606,7 +612,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -627,7 +633,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -787,26 +793,34 @@
   <si>
     <t>06/19/2019</t>
   </si>
+  <si>
+    <t>마이너한 코드스멜 - 명명법 다 고쳤음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readme 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -828,14 +842,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -844,7 +858,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -853,7 +867,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -913,7 +927,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -925,7 +939,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -936,15 +950,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -956,11 +970,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -980,11 +994,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1004,11 +1018,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1028,11 +1042,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1057,60 +1071,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table146" displayName="Table146" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1467" displayName="Table1467" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F18" totalsRowShown="0">
-  <autoFilter ref="A1:F18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1405,23 +1419,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1455,7 +1469,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="90">
+    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1473,7 +1487,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120">
+    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1513,7 +1527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120">
+    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="240">
+    <row r="7" spans="1:6" ht="224.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1549,7 +1563,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="225">
+    <row r="8" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1569,7 +1583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1577,7 +1591,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1585,7 +1599,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1593,7 +1607,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1601,7 +1615,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1609,7 +1623,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1617,7 +1631,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1640,16 +1654,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1687,7 +1701,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="135">
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1707,7 +1721,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1727,7 +1741,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120">
+    <row r="5" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
@@ -1747,7 +1761,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60">
+    <row r="6" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -1765,7 +1779,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="150">
+    <row r="7" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -1785,7 +1799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="150">
+    <row r="8" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>123</v>
       </c>
@@ -1805,7 +1819,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1813,7 +1827,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1821,7 +1835,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1829,7 +1843,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1837,7 +1851,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1845,7 +1859,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1853,7 +1867,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1876,16 +1890,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75">
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +1937,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="165">
+    <row r="3" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1941,7 +1955,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="90">
+    <row r="4" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,7 +1973,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1977,7 +1991,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1995,7 +2009,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="90">
+    <row r="7" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -2013,7 +2027,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="180">
+    <row r="8" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2045,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="240">
+    <row r="9" spans="1:6" ht="189.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2051,7 +2065,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105">
+    <row r="10" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -2071,7 +2085,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="150">
+    <row r="11" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2091,7 +2105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="180">
+    <row r="12" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -2111,7 +2125,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60">
+    <row r="13" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
@@ -2129,7 +2143,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="75">
+    <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>106</v>
       </c>
@@ -2147,7 +2161,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="150">
+    <row r="15" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -2167,7 +2181,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="120">
+    <row r="16" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>
@@ -2187,27 +2201,70 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43624</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43624</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="2">
+        <v>43636</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43636</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2">
+        <v>43636</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43636</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2218,16 +2275,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:6" ht="102.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2267,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2287,7 +2344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="135">
+    <row r="4" spans="1:6" ht="114" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -2307,7 +2364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2327,7 +2384,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -2345,7 +2402,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="150">
+    <row r="7" spans="1:6" ht="117" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2365,7 +2422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120">
+    <row r="8" spans="1:6" ht="74.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -2385,7 +2442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="180">
+    <row r="9" spans="1:6" ht="142.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -2405,7 +2462,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75">
+    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>98</v>
       </c>
@@ -2425,7 +2482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
@@ -2439,7 +2496,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>128</v>
       </c>
@@ -2453,7 +2510,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="60">
+    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>129</v>
       </c>
@@ -2469,7 +2526,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -2477,7 +2534,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
